--- a/在庫管理表/在庫リスト.xlsx
+++ b/在庫管理表/在庫リスト.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A400824-1733-FA4A-B7ED-639529FBF519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69673922-FCC7-1443-A600-1DA3FFF0B632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="4340" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="11020" yWindow="2720" windowWidth="19200" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="在庫リスト" sheetId="1" r:id="rId1"/>
@@ -1870,8 +1870,8 @@
   </sheetPr>
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="149" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="24" customHeight="1"/>
@@ -2888,6 +2888,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3095,15 +3104,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
   <ds:schemaRefs>
@@ -3115,6 +3115,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3132,12 +3140,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>